--- a/database/report_nan_situacao.xlsx
+++ b/database/report_nan_situacao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,142 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>66</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Serviço de manutençao corretiva com fornecimento e substituição de motoventilador da evaporadora de condicionador de ar tipo split de 7.000 a 10.000 btu´s, de todos os modelos da marca springer, midea, carrier, elgin, york, consul, lg, gree e eletrolux e komeco.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>67</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Serviço de manutençao corretiva com fornecimento e substituição de motoventilador da evaporadora de condicionador de ar tipo split de 12.000 a 18.000 btu´s, de todos os modelos da marca springer, midea, carrier, elgin, york, consul, lg, gree e eletrolux e komeco.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>68</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>IDEM AO ITEM 12 (ME/EPP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>69</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>IDEM AO ITEM 17 (ME/EPP)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/report_nan_situacao.xlsx
+++ b/database/report_nan_situacao.xlsx
@@ -591,8 +591,14 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z2" t="inlineStr">
         <is>
           <t>Serviço de manutençao corretiva com fornecimento e substituição de motoventilador da evaporadora de condicionador de ar tipo split de 7.000 a 10.000 btu´s, de todos os modelos da marca springer, midea, carrier, elgin, york, consul, lg, gree e eletrolux e komeco.</t>
@@ -625,8 +631,14 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>Serviço de manutençao corretiva com fornecimento e substituição de motoventilador da evaporadora de condicionador de ar tipo split de 12.000 a 18.000 btu´s, de todos os modelos da marca springer, midea, carrier, elgin, york, consul, lg, gree e eletrolux e komeco.</t>
@@ -659,8 +671,14 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t>IDEM AO ITEM 12 (ME/EPP)</t>
@@ -693,8 +711,14 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="Z5" t="inlineStr">
         <is>
           <t>IDEM AO ITEM 17 (ME/EPP)</t>

--- a/database/report_nan_situacao.xlsx
+++ b/database/report_nan_situacao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,166 +565,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>66</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Serviço de manutençao corretiva com fornecimento e substituição de motoventilador da evaporadora de condicionador de ar tipo split de 7.000 a 10.000 btu´s, de todos os modelos da marca springer, midea, carrier, elgin, york, consul, lg, gree e eletrolux e komeco.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>67</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Serviço de manutençao corretiva com fornecimento e substituição de motoventilador da evaporadora de condicionador de ar tipo split de 12.000 a 18.000 btu´s, de todos os modelos da marca springer, midea, carrier, elgin, york, consul, lg, gree e eletrolux e komeco.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>68</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>IDEM AO ITEM 12 (ME/EPP)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>69</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>IDEM AO ITEM 17 (ME/EPP)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/report_nan_situacao.xlsx
+++ b/database/report_nan_situacao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,1686 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>446019</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>LEITE EM PÓ</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>LEITE EM PÓ, ORIGEM: DE VACA, TEOR GORDURA: INTEGRAL, SOLUBILIDADE: INSTANTÂNEO (Embalagem contendo o mínimo de 400g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>463556</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>ACHOCOLATADO</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>ACHOCOLATADO, APRESENTAÇÃO: PÓ, SABOR: TRADICIONAL, CARACTERÍSTICA ADICIONAL: ENRIQUECIDO   COM   VITAMINAS (Embalagem de 400g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>13</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>235092</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>BISCOITO SALGADO</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>BISCOITO, APRESENTAÇÃO: QUADRADO, CLASSIFICAÇÃO: SALGADO, TIPO: CREAM CRACKER (Peso mínimo 360g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>456469</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>BISCOITO MAISENA</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>BISCOITO, SABOR: MAIZENA, CARACTERÍSTICAS ADICIONAIS: SEM LACTOSE, TIPO: BOLACHA, INGREDIENTES: SEM GORDURA TRANS (Peso mínimo no pacote: 400g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>15</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>462651</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>DOCE NÃO CONFEITADO</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>DOCE NÃO CONFEITADO, TIPO: MASSA, SABOR: GOIABA, FORMA APRESENTAÇÃO: TABLETE (Embalagem contendo o mínimo de 300g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>16</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>372527</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>CREME DENTAL</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>DENTIFRÍCIO COMPOSIÇÃO BÁSICA: CREME DENTAL COM FLUOR ATIVO DE (1100 Ppm) , Tipo: Adulto (Embalagem contendo o mínimo de 70g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>17</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>372079</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>SOLUÇÃO LIMPEZA MULTIUSO</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>SOLUÇÃO LIMPEZA MULTIUSO, COMPOSIÇÃO BÁSICA: AQUILBENZENO, SULFONATO DE SÓDIO, TENSOATIVO NÃO, ASPECTO FÍSICO: LÍQUIDO (Frasco de 500ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>18</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>449798</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>DETERGENTE</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>DETERGENTE COMPOSIÇÃO: DODECILBENZENO SULFONATO DE SÓDIO , APLICAÇÃO: LAVAGEM DE LOUÇAS , AROMA: INODORO, CARACTERÍSTICAS ADICIONAIS: PH 6,5 A  7,5  ,  ASPECTO  FÍSICO:  LÍQUIDO INCOLOR (Frasco de 500ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>19</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>443004</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>PAPEL HIGIÊNICO</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>PAPEL HIGIÊNICO MATERIAL: CELULOSE VIRGEM , LARGURA: 10 CM, COR: BRANCA , CARACTERÍSTICAS ADICIONAIS: PICOTADO, FOLHA DUPLA (Pacote de 12UN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>20</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>301728</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>ABSORVENTE HIGIÊNICO</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>ABSORVENTE   HIGIÊNICO,   TIPO: NORMAL COM ABAS, CARACTERÍSTICAS ADICIONAIS: ADULTO, COM GEL, ALTA PROTEÇÃO (Embalagem de 32UN, Tamanho M, Comprimento: 28 cm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>21</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>299605</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>ÁGUA SANITÁRIA, COMPOSIÇÃO QUÍMICA: HIPOCLORITO DE SÓDIO, HIDRÓXIDO DE SÓDIO, CLORETO, TEOR CLORO ATIVO: VARIA DE 2 A 2,50%, COR: INCOLOR, APLICAÇÃO: LAVAGEM E ALVEJANTE DE ROUPAS, BANHEIRAS, PIAS (Embalagem de 2L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>22</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>444433</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>SABONETE</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>SABONETE, ASPECTO FÍSICO: SÓLIDO, PESO: 90 G, AROMA: SUAVE, COR: BRANCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>23</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="n">
+        <v>332971</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>SABÃO PÓ</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>SABÃO PÓ, ASPECTO FÍSICO: PÓ, COMPOSIÇÃO: CARBONATOS, SILICATOS, FOSFATOS, TENSOATIVOS NÃO IÔ-, CARACTERÍSTICAS ADICIONAIS: BIODEGRADÁVEL (Embalagem de 1kg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>24</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>603269</v>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>AÇÚCAR</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>AÇÚCAR,  TIPO:  CRISTAL,  Coloração: Branca (Embalagem de 2kg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>25</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>606522</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>CAFÉ</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>CAFÉ APRESENTAÇÃO: TORRADO MOÍDO, TIPO: ÚNICO, TORREFAÇÃO: PONTO DE TORRA ESCURA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>26</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>373481</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>ESPONJA LIMPEZA</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>ESPONJA LIMPEZA MATERIAL: LÃ DE AÇO CARBONO , FORMATO: RETANGULAR , APLICAÇÃO: UTENSÍLIOS E LIMPEZA EM GERAL , CARACTERÍSTICAS ADICIONAIS: TEXTURA MACIA E ISENTA DE SINAIS DE OXIDAÇÃO , COMPRIMENTO MÍNIMO: 100 MM, LARGURA MÍNIMA: 50 M</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>27</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>458904</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>ARROZ BENEFICIADO</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>ARROZ BENEFICIADO, TIPO: AGULHINHA /BRANCO, SUBGRUPO: POLIDO, CLASSE: LONGO FINO, QUALIDADE: TIPO 1 (Pacote de 5kg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>28</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
+        <v>464553</v>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>LEGUMINOSA</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>LEGUMINOSA, VARIEDADE: FEIJÃO CARIOCA, TIPO: TIPO 1 (Pacote de 1kg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>29</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>458955</v>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>MACARRÃO</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>MACARRÃO TEOR DE UMIDADE: MASSA SECA , BASE DA MASSA: DE SÊMOLA /SEMOLINA, INGREDIENTES ADICIONAIS: COM OVOS , APRESENTAÇÃO: ESPAGUETE (Pacote de 500g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>463692</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>ÓLEO VEGETAL COMESTÍVEL</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>ÓLEO VEGETAL COMESTÍVEL, TIPO: PURO, ESPÉCIE VEGETAL: SOJA, TIPO QUALIDADE: TIPO 1 (Frasco de 900ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>31</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>449006</v>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>PEIXE EM CONSERVA</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>PEIXE EM CONSERVA, VARIEDADE: SARDINHA, APRESENTAÇÃO: DESCABEÇADA E EVISCERADA, MEIO DE   COBERTURA:   COM   ÓLEO COMESTÍVEL (Lata contendo o mínimo de 125g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>32</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>454017</v>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>SAL</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>SAL, TIPO: REFINADO, APLICAÇÃO: ALIMENTÍCIA, TEOR MÁXIMO SÓDIO: 390 MG/G, ACIDEZ: 7,0 PH (Pacote de 1kg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>33</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="n">
+        <v>465332</v>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>FARINHA DE TRIGO</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>FARINHA DE TRIGO, GRUPO: INDUSTRIAL, TIPO: TIPO 1, ESPECIAL, INGREDIENTE   ADICIONAL:   SEM FERMENTO (Pacote de 1kg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>34</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="n">
+        <v>459017</v>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>FARINHA DE MILHO</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>FARINHA DE MILHO, GRÃO: AMARELO, TIPO: FLOCADA, APRESENTAÇÃO: PRÉ- COZIDA, CARACTERÍSTICA ADICIONAL: TRANSGÊNICO, INGREDIENTE ADICIONAL: FORTIFICADA COM FERRO E ÁCIDO FÓLICO (Pacote de 500g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>35</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="n">
+        <v>459670</v>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>MASSA DE TOMATE</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>MASSA DE TOMATE, TIPO: EXTRATO CONCENTRADO, COMPOSIÇÃO: TRADICIONAL, APRESENTAÇÃO: CREME (Embalagem de 340g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>36</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="n">
+        <v>269172</v>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>TEMPERO</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>TEMPERO, TIPO: ALHO E SAL, APRESENTAÇÃO: PASTA,  APLICAÇÃO: USO CULINÁRIO (Embalagem contendo o mínimo de 300g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>37</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="n">
+        <v>446019</v>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>LEITE EM PÓ</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>LEITE EM PÓ, ORIGEM: DE VACA, TEOR GORDURA: INTEGRAL, SOLUBILIDADE: INSTANTÂNEO (Embalagem contendo o mínimo de 400g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>38</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="n">
+        <v>463556</v>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>ACHOCOLATADO</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>ACHOCOLATADO, APRESENTAÇÃO: PÓ, SABOR: TRADICIONAL, CARACTERÍSTICA ADICIONAL: ENRIQUECIDO   COM   VITAMINAS (Embalagem de 400g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>39</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="n">
+        <v>235092</v>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>BISCOITO SALGADO</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>BISCOITO, APRESENTAÇÃO: QUADRADO, CLASSIFICAÇÃO: SALGADO, TIPO: CREAM CRACKER (Peso mínimo 360g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>40</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="n">
+        <v>456469</v>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>BISCOITO MAISENA</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>BISCOITO, SABOR: MAIZENA, CARACTERÍSTICAS ADICIONAIS: SEM LACTOSE, TIPO: BOLACHA, INGREDIENTES: SEM GORDURA TRANS (Peso mínimo no pacote: 400g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>41</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="n">
+        <v>462651</v>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>DOCE NÃO CONFEITADO</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>DOCE NÃO CONFEITADO, TIPO: MASSA, SABOR: GOIABA, FORMA APRESENTAÇÃO: TABLETE (Embalagem contendo o mínimo de 300g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>42</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="n">
+        <v>372527</v>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>CREME DENTAL</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>DENTIFRÍCIO COMPOSIÇÃO BÁSICA: CREME DENTAL COM FLUOR ATIVO DE (1100 Ppm) , Tipo: Adulto (Embalagem contendo o mínimo de 70g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>43</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="n">
+        <v>372079</v>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>SOLUÇÃO LIMPEZA MULTIUSO</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>SOLUÇÃO LIMPEZA MULTIUSO, COMPOSIÇÃO BÁSICA: AQUILBENZENO, SULFONATO DE SÓDIO, TENSOATIVO NÃO, ASPECTO FÍSICO: LÍQUIDO (Frasco de 500ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>44</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="n">
+        <v>449798</v>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>DETERGENTE</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>DETERGENTE COMPOSIÇÃO: DODECILBENZENO SULFONATO DE SÓDIO , APLICAÇÃO: LAVAGEM DE LOUÇAS , AROMA: INODORO, CARACTERÍSTICAS ADICIONAIS: PH 6,5 A  7,5  ,  ASPECTO  FÍSICO:  LÍQUIDO INCOLOR (Frasco de 500ml)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>45</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="n">
+        <v>443004</v>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>PAPEL HIGIÊNICO</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>PAPEL HIGIÊNICO MATERIAL: CELULOSE VIRGEM , LARGURA: 10 CM, COR: BRANCA , CARACTERÍSTICAS ADICIONAIS: PICOTADO, FOLHA DUPLA (Pacote de 12UN)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>46</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="n">
+        <v>301728</v>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>ABSORVENTE HIGIÊNICO</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>ABSORVENTE   HIGIÊNICO,   TIPO: NORMAL COM ABAS, CARACTERÍSTICAS ADICIONAIS: ADULTO, COM GEL, ALTA PROTEÇÃO (Embalagem de 32UN, Tamanho M, Comprimento: 28 cm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>47</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="n">
+        <v>299605</v>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>ÁGUA SANITÁRIA</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>ÁGUA SANITÁRIA, COMPOSIÇÃO QUÍMICA: HIPOCLORITO DE SÓDIO, HIDRÓXIDO DE SÓDIO, CLORETO, TEOR CLORO ATIVO: VARIA DE 2 A 2,50%, COR: INCOLOR, APLICAÇÃO: LAVAGEM E ALVEJANTE DE ROUPAS, BANHEIRAS, PIAS (Embalagem de 2L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>48</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="n">
+        <v>444433</v>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>SABONETE</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>SABONETE, ASPECTO FÍSICO: SÓLIDO, PESO: 90 G, AROMA: SUAVE, COR: BRANCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>49</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="n">
+        <v>332971</v>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>SABÃO PÓ</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>SABÃO PÓ, ASPECTO FÍSICO: PÓ, COMPOSIÇÃO: CARBONATOS, SILICATOS, FOSFATOS, TENSOATIVOS NÃO IÔ-, CARACTERÍSTICAS ADICIONAIS: BIODEGRADÁVEL (Embalagem de 1kg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>50</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="n">
+        <v>603269</v>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>AÇÚCAR</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>AÇÚCAR,  TIPO:  CRISTAL,  Coloração: Branca (Embalagem de 2kg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>51</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="n">
+        <v>606522</v>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>CAFÉ</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>CAFÉ APRESENTAÇÃO: TORRADO MOÍDO, TIPO: ÚNICO, TORREFAÇÃO: PONTO DE TORRA ESCURA</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>52</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="n">
+        <v>373481</v>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>ESPONJA LIMPEZA</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>ESPONJA LIMPEZA MATERIAL: LÃ DE AÇO CARBONO , FORMATO: RETANGULAR , APLICAÇÃO: UTENSÍLIOS E LIMPEZA EM GERAL , CARACTERÍSTICAS ADICIONAIS: TEXTURA MACIA E ISENTA DE SINAIS DE OXIDAÇÃO , COMPRIMENTO MÍNIMO: 100 MM, LARGURA MÍNIMA: 50 M</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/report_nan_situacao.xlsx
+++ b/database/report_nan_situacao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,7 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>descricao_detalhada_tr</t>
+          <t>descricao_detalhada</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -592,16 +592,21 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>446019</v>
+        <v>431283</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>LEITE EM PÓ</t>
+          <t>Liquidificador Industrial 15 L</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>LEITE EM PÓ, ORIGEM: DE VACA, TEOR GORDURA: INTEGRAL, SOLUBILIDADE: INSTANTÂNEO (Embalagem contendo o mínimo de 400g)</t>
+          <t>Material: Copo em Aço Inox | Cavalete em Aço Pintado
+Capacidade: 15 litros
+Potência: 1,5CV
+Rotação: 3500 Rpm
+Voltagem: 220V
+Frequência: 60Hz</t>
         </is>
       </c>
     </row>
@@ -613,7 +618,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -632,16 +637,22 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>463556</v>
+        <v>473222</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>ACHOCOLATADO</t>
+          <t>Multiprocessador De Alimentos</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>ACHOCOLATADO, APRESENTAÇÃO: PÓ, SABOR: TRADICIONAL, CARACTERÍSTICA ADICIONAL: ENRIQUECIDO   COM   VITAMINAS (Embalagem de 400g)</t>
+          <t>Processador de Alimentos com 6 Discos, 220v.
+Especificações Técnicas / Potência do Motor: 1CV / Frequência: 60Hz / Tensão: 220V
+Altura: 775.00 mm / Largura: 710.00 mm
+Profundidade: 520.00 mm / Peso Líquido: 71.50 kg
+Peso Bruto: 99.00 kg / Diâmetro do Disco: 429 mm / Rotação do Disco: 510 rpm
+Produção: 400 kg/h / Diâmetro do Bocal Redondo: 161 mm
+(Referência: PA-14-N ou de qualidade equivalente)</t>
         </is>
       </c>
     </row>
@@ -653,7 +664,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -672,16 +683,19 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>235092</v>
+        <v>479243</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>BISCOITO SALGADO</t>
+          <t>Forno Micro-Ondas</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>BISCOITO, APRESENTAÇÃO: QUADRADO, CLASSIFICAÇÃO: SALGADO, TIPO: CREAM CRACKER (Peso mínimo 360g)</t>
+          <t>Forno Micro-ondas
+Material: Aço Inoxidável / Capacidade: 31 L / Potência: 1.400 W
+Voltagem: 220 V
+Características Adicionais: Timer, Prato Giratório, Auto Descongelamento</t>
         </is>
       </c>
     </row>
@@ -693,7 +707,7 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -712,16 +726,21 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>456469</v>
+        <v>487318</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>BISCOITO MAISENA</t>
+          <t>Máquina De Gelo</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>BISCOITO, SABOR: MAIZENA, CARACTERÍSTICAS ADICIONAIS: SEM LACTOSE, TIPO: BOLACHA, INGREDIENTES: SEM GORDURA TRANS (Peso mínimo no pacote: 400g)</t>
+          <t xml:space="preserve">Máquina de gelo em cubas 100kg/dia, 220v.
+Capacidade do reservatório: 40kg ou maior
+Peso do gelo: aproximadamente 6g / Tipo de gelo: cubos / Material: aço inox
+Potência: 270w / Dimensão aproximada do produto ( l x p x a): 67 x 66 x 120cm
+Peso produto: 77kg
+(Referência SRM-105A ou de qualidade equivalente) </t>
         </is>
       </c>
     </row>
@@ -733,7 +752,7 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -752,16 +771,22 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>462651</v>
+        <v>445256</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>DOCE NÃO CONFEITADO</t>
+          <t>Cortador De Frios</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>DOCE NÃO CONFEITADO, TIPO: MASSA, SABOR: GOIABA, FORMA APRESENTAÇÃO: TABLETE (Embalagem contendo o mínimo de 300g)</t>
+          <t>Fatiador de Frios, automático, 220v.
+Informações Técnicas: Referência: AXT-30i
+Chave seletora de energia 110V / 220V.
+Regulagem de corte de alta precisão / Bandeja porta frios com 40º de inclinação
+Protetor de faca de corte / Produção média de 40 fatias por minuto
+Potência do motor de 0,33 cv / Motorização refrigerada
+Dimensões (LxAxP): 55,5 x 59 x 57 cm / Peso: 30,5 kg</t>
         </is>
       </c>
     </row>
@@ -773,7 +798,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -792,16 +817,20 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>372527</v>
+        <v>253635</v>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>CREME DENTAL</t>
+          <t>Moedor De Carne Industrial</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>DENTIFRÍCIO COMPOSIÇÃO BÁSICA: CREME DENTAL COM FLUOR ATIVO DE (1100 Ppm) , Tipo: Adulto (Embalagem contendo o mínimo de 70g)</t>
+          <t>Moedor de Carne com Alimentador automático, Trifásico, 220 V.
+Estrutura: Aço inox 304. 
+A Capa Externa E A Bandeja São Produzidas Em Aço Inox
+Duplo Corte: Disco Pré-Cortador incluso
+Sensor de Segurança: Mecânico / Potência do motor:3Cv / Produção: 700 kg/h</t>
         </is>
       </c>
     </row>
@@ -813,7 +842,7 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -832,16 +861,20 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>372079</v>
+        <v>330755</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>SOLUÇÃO LIMPEZA MULTIUSO</t>
+          <t>Câmara De Fermentação De Pães</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>SOLUÇÃO LIMPEZA MULTIUSO, COMPOSIÇÃO BÁSICA: AQUILBENZENO, SULFONATO DE SÓDIO, TENSOATIVO NÃO, ASPECTO FÍSICO: LÍQUIDO (Frasco de 500ml)</t>
+          <t>Câmara Climática, 1200 Pães, Inox - 220V
+Temperatura: +30° a +35°C / Aquecimento: Resistência Blindada
+Controle de Temperatura: Controlador eletrônico (termostato, timer, termômetro digital) / Gabinete com rodízios, para facilitar a locomoção do equipamento
+Vaporizador que ajuda a umidificar a massa evitando o seu ressecamento / Prateleiras reguláveis e ajustável na largura de 520 a 700mm / Revestimento interno em aço inox 430 / Revestimento externo frontal em aço inox 304 e laterais em Aço revestido Tipo Inox / Dimensões (LxAxP) 87,5 x 208,5 x 138,5 cm / Peso: 271 Kg
+(Referência: GCTP-1200 ou de qualidade equivalente)</t>
         </is>
       </c>
     </row>
@@ -853,7 +886,7 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -872,16 +905,21 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>449798</v>
+        <v>451184</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>DETERGENTE</t>
+          <t>Liquidificador Doméstico 2 L</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>DETERGENTE COMPOSIÇÃO: DODECILBENZENO SULFONATO DE SÓDIO , APLICAÇÃO: LAVAGEM DE LOUÇAS , AROMA: INODORO, CARACTERÍSTICAS ADICIONAIS: PH 6,5 A  7,5  ,  ASPECTO  FÍSICO:  LÍQUIDO INCOLOR (Frasco de 500ml)</t>
+          <t>Liquidificador 
+Capacidade: 2 L
+Potência: 350 W
+Voltagem: 110 / 220 V
+Uso: Doméstico
+Características Adicionais: 3 Velocidades, Com Filtro E Batedor</t>
         </is>
       </c>
     </row>
@@ -893,7 +931,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -912,16 +950,18 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>443004</v>
+        <v>255706</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>PAPEL HIGIÊNICO</t>
+          <t>Máquina De Lavar Louça Industrial</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>PAPEL HIGIÊNICO MATERIAL: CELULOSE VIRGEM , LARGURA: 10 CM, COR: BRANCA , CARACTERÍSTICAS ADICIONAIS: PICOTADO, FOLHA DUPLA (Pacote de 12UN)</t>
+          <t>Lavadora de Louças Industrial. 
+Capacidade mecânica: 250 gavetas por hora. Capacidade por gaveta: 18 pratos (~300 mm) ou 27 pratos (~190 mm) ou 36 pires (~120 mm) ou 09 bandejas (460 x 410 mm) ou 200 talheres ou 41 copos (67 mm) ou 36 copos (Ø70 mm) ou 49 xícaras de café (~60 mm) ou 25 xícaras de chá (~85 mm). Operações: pré lavagem, lavagem e enxágue, realizados através de braços superiores e inferiores. Sentido de operação: esquerda-direita ou direita-esquerda (reversível). Aquecimentos da solução de lavagem e da água de enxágue: elétricos.  Temperatura da solução de lavagem: de 55° a 65° C. Tipo de lavadora: multicâmara, com deslocamento das gavetas por esteira. Necessita o uso de mesas de apoio auxiliares específicas. Espaço útil de lavagem em mm (L x H): 500 x 430. Dimensões em mm (L x P x H): 1.650 x 930 x 1.380, sem as mesas auxiliares. Peso (sem embalagem): 333 kg.
+(Referência: Netter NT 810 S MOP ou similar)</t>
         </is>
       </c>
     </row>
@@ -933,7 +973,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -952,16 +992,21 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>301728</v>
+        <v>483907</v>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>ABSORVENTE HIGIÊNICO</t>
+          <t>Carrinho Vertical  Duas Rodas</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>ABSORVENTE   HIGIÊNICO,   TIPO: NORMAL COM ABAS, CARACTERÍSTICAS ADICIONAIS: ADULTO, COM GEL, ALTA PROTEÇÃO (Embalagem de 32UN, Tamanho M, Comprimento: 28 cm)</t>
+          <t>Carrinho Transporte Material: Metal 
+Capacidade: 200 KG, Largura: 34 CM
+Comprimento: 26 CM
+Quantidade Rodas: 2
+Material Rodas: Pneu Com Câmara
+Tipo: Armazém</t>
         </is>
       </c>
     </row>
@@ -973,7 +1018,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
@@ -992,16 +1037,20 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
-        <v>299605</v>
+        <v>439607</v>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>ÁGUA SANITÁRIA</t>
+          <t>Televisor 75”</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>ÁGUA SANITÁRIA, COMPOSIÇÃO QUÍMICA: HIPOCLORITO DE SÓDIO, HIDRÓXIDO DE SÓDIO, CLORETO, TEOR CLORO ATIVO: VARIA DE 2 A 2,50%, COR: INCOLOR, APLICAÇÃO: LAVAGEM E ALVEJANTE DE ROUPAS, BANHEIRAS, PIAS (Embalagem de 2L)</t>
+          <t xml:space="preserve">Televisor
+Características Adicionais: 4k, 3d E Smart Tv, Mínimo: 2 Usb, 3 Hdmi, Wi-Fi In
+Tamanho Tela: 75 POL
+Tipo Tela: Led
+Voltagem: 110/220 </t>
         </is>
       </c>
     </row>
@@ -1013,7 +1062,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -1032,16 +1081,18 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
-        <v>444433</v>
+        <v>330755</v>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>SABONETE</t>
+          <t>Câmara De Fermentação De Pães</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>SABONETE, ASPECTO FÍSICO: SÓLIDO, PESO: 90 G, AROMA: SUAVE, COR: BRANCA</t>
+          <t>Aparelho Ar Condicionado Capacidade Refrigeração: 12.000 BTU Modelo: Fancolete Hidrônico Características Adicionais 1: Controle Remoto S/Fio, Inverter
+Tipo: Split Hi Wall / Tensão: 220
+(instalação inclusa)</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1104,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -1072,16 +1123,18 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
-        <v>332971</v>
+        <v>486185</v>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>SABÃO PÓ</t>
+          <t>Transpalete Hidráulico</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>SABÃO PÓ, ASPECTO FÍSICO: PÓ, COMPOSIÇÃO: CARBONATOS, SILICATOS, FOSFATOS, TENSOATIVOS NÃO IÔ-, CARACTERÍSTICAS ADICIONAIS: BIODEGRADÁVEL (Embalagem de 1kg)</t>
+          <t>Aparelho Ar Condicionado Capacidade Refrigeração: 18.000 BTU Características Adicionais 1: Controle Remoto S/Fio, Inverter
+Tipo: Split Hi Wall / Tensão: 220 
+(instalação inclusa)</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1146,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -1112,16 +1165,19 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="n">
-        <v>603269</v>
+        <v>600067</v>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>AÇÚCAR</t>
+          <t>Termômetro Infravermelho</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>AÇÚCAR,  TIPO:  CRISTAL,  Coloração: Branca (Embalagem de 2kg)</t>
+          <t>Aparelho Ar Condicionado Capacidade Refrigeração: 36.000 BTU/H, 
+Vazão Ar: 1.200 M3/H / Tensão: 220 V / Frequência: 60 HZ
+Tipo: Split / Características Adicionais 1: Bomba De Dreno
+(instalação inclusa)</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1189,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1152,16 +1208,19 @@
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="n">
-        <v>606522</v>
+        <v>451529</v>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>CAFÉ</t>
+          <t>Refresqueira Industrial 150l L</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>CAFÉ APRESENTAÇÃO: TORRADO MOÍDO, TIPO: ÚNICO, TORREFAÇÃO: PONTO DE TORRA ESCURA</t>
+          <t>Forno Combinado Elétrico 10 Gns, com carro gaiola
+Tecnologia Steam Power e Higienização Automática – 380v, trifásico. 
+Capacidade: 10 GN’s 1/1 x 65mm (não acompanham o produto - vendidas separadamente) / Disponível na voltagem: TRIF. 220V / TRIF. 380V
+Altura: 1,05 cm / Largura: 0,76 cm / Comprimento: 1,05 cm / Peso: 173 kg</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1232,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -1192,16 +1251,21 @@
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
-        <v>373481</v>
+        <v>317762</v>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>ESPONJA LIMPEZA</t>
+          <t>Sanduicheira Dupla Elétrica</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>ESPONJA LIMPEZA MATERIAL: LÃ DE AÇO CARBONO , FORMATO: RETANGULAR , APLICAÇÃO: UTENSÍLIOS E LIMPEZA EM GERAL , CARACTERÍSTICAS ADICIONAIS: TEXTURA MACIA E ISENTA DE SINAIS DE OXIDAÇÃO , COMPRIMENTO MÍNIMO: 100 MM, LARGURA MÍNIMA: 50 M</t>
+          <t>Caldeirão Industrial a Gás, autogerador de Vapor, 500l
+Tampa tipo americana. 
+Construído em aço inoxidável. 
+Panela interna de cocção e revestimento externo em aço inoxidável. 
+Com isolação térmica em lã de vidro. 
+Dimensões: 1405x910 mm</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1277,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -1232,16 +1296,22 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="n">
-        <v>458904</v>
+        <v>451184</v>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>ARROZ BENEFICIADO</t>
+          <t>Liquidificador Doméstico 2 L</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>ARROZ BENEFICIADO, TIPO: AGULHINHA /BRANCO, SUBGRUPO: POLIDO, CLASSE: LONGO FINO, QUALIDADE: TIPO 1 (Pacote de 5kg)</t>
+          <t>Liquidificador Industrial 25 l Basculante. Dimensões: 39x52,5x117,5cm
+Capacidade: 25 Litros
+Modelo: LB-25MB
+Alimentação: Elétrico
+Voltagem: 220V / Potência: 1,5 cv
+Consumo: 1,55 kw/h
+Velocidade: 3500 rpm</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1323,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1272,16 +1342,21 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
-        <v>464553</v>
+        <v>255706</v>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>LEGUMINOSA</t>
+          <t>Máquina De Lavar Louça Industrial</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>LEGUMINOSA, VARIEDADE: FEIJÃO CARIOCA, TIPO: TIPO 1 (Pacote de 1kg)</t>
+          <t>Material: Copo em Aço Inox | Cavalete em Aço Pintado
+Capacidade: 15 litros
+Potência: 1,5CV
+Rotação: 3500 Rpm
+Voltagem: 220V
+Frequência: 60Hz</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1368,7 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1312,16 +1387,20 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="n">
-        <v>458955</v>
+        <v>483907</v>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>MACARRÃO</t>
+          <t>Carrinho Vertical  Duas Rodas</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>MACARRÃO TEOR DE UMIDADE: MASSA SECA , BASE DA MASSA: DE SÊMOLA /SEMOLINA, INGREDIENTES ADICIONAIS: COM OVOS , APRESENTAÇÃO: ESPAGUETE (Pacote de 500g)</t>
+          <t>Refrigerador Duplex Capacidade Refrigeração: 391 L
+Capacidade Congelador: 188 L  / Tipo: Vertical
+Tipo Portas: Reversíveis / Sistema Degelo: Frost Free
+Cor: Inox / Tensão Alimentação: Bivolt V
+Características Adicionais: Prateleiras Reguláveis / Iluminação Led</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1412,7 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1352,16 +1431,22 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
-        <v>463692</v>
+        <v>480490</v>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>ÓLEO VEGETAL COMESTÍVEL</t>
+          <t>Televisor 50”</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>ÓLEO VEGETAL COMESTÍVEL, TIPO: PURO, ESPÉCIE VEGETAL: SOJA, TIPO QUALIDADE: TIPO 1 (Frasco de 900ml)</t>
+          <t>Freezer Tipo: Horizontal / Capacidade: 510 L
+Quantidade Tampas: 2 UN
+Sistema Degelo: Manual
+Cor: Branca
+Temperatura Operação: (-16 À -20°) E (+1 À +7°) °C
+Tensão Alimentação: 220 V
+Características Adicionais: Dreno Frontal Com Tampa E Rodízios</t>
         </is>
       </c>
     </row>
@@ -1373,7 +1458,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1392,16 +1477,20 @@
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="n">
-        <v>449006</v>
+        <v>457010</v>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>PEIXE EM CONSERVA</t>
+          <t>Forno Padaria Turbo 5 Estrelas</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>PEIXE EM CONSERVA, VARIEDADE: SARDINHA, APRESENTAÇÃO: DESCABEÇADA E EVISCERADA, MEIO DE   COBERTURA:   COM   ÓLEO COMESTÍVEL (Lata contendo o mínimo de 125g)</t>
+          <t>Dados Técnicos:
+Capacidade de carga (Kg): 300kg
+Dimensões: 56 x 37
+Divisão (g): 100g / Peso (Kg): 23
+Referência Balmak: BKH – 300</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1502,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1432,16 +1521,20 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="n">
-        <v>454017</v>
+        <v>451529</v>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>SAL</t>
+          <t>Refresqueira Industrial 150l L</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>SAL, TIPO: REFINADO, APLICAÇÃO: ALIMENTÍCIA, TEOR MÁXIMO SÓDIO: 390 MG/G, ACIDEZ: 7,0 PH (Pacote de 1kg)</t>
+          <t>Câmara Climática, 1200 Pães, Inox - 220V
+Temperatura: +30° a +35°C / Aquecimento: Resistência Blindada
+Controle de Temperatura: Controlador eletrônico (termostato, timer, termômetro digital) / Gabinete com rodízios, para facilitar a locomoção do equipamento
+Vaporizador que ajuda a umidificar a massa evitando o seu ressecamento / Prateleiras reguláveis e ajustável na largura de 520 a 700mm / Revestimento interno em aço inox 430 / Revestimento externo frontal em aço inox 304 e laterais em Aço revestido Tipo Inox / Dimensões (LxAxP) 87,5 x 208,5 x 138,5 cm / Peso: 271 Kg
+(Referência: GCTP-1200 ou de qualidade equivalente)</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1546,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1472,16 +1565,19 @@
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="n">
-        <v>465332</v>
+        <v>317762</v>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>FARINHA DE TRIGO</t>
+          <t>Sanduicheira Dupla Elétrica</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>FARINHA DE TRIGO, GRUPO: INDUSTRIAL, TIPO: TIPO 1, ESPECIAL, INGREDIENTE   ADICIONAL:   SEM FERMENTO (Pacote de 1kg)</t>
+          <t>Paleteira hidráulica manual / Indicado para movimentação de cargas acondicionadas em paletes / Possui pintura eletrostática a pó, proporcionando maior durabilidade e resistência / Especificações: Capacidade de carga do carro hidráulico: 2 toneladas
+Elevação máxima: 200,0 mm / Largura útil dos garfos: 150,0 mm
+Comprimento útil do garfo: 1150,0 mm / Material da roda do carro hidráulico: Nylon / Dimensões da roda dianteira: 180 x 50 mm / Dimensões da roda traseira: 70 x 80 mm – simples / Material da estrutura: Aço carbono reforçado
+Altura do garfo: 53,0 mm / Altura total do carro hidráulico (cabo): 1186,0 mm / Altura mínima: 85,0 / Altura do solo até a base: 32,0 mm Comprimento total do carro hidráulico: 1520,0 mm / Largura: 680,0 mm; Largura mínima do corredor: 1720,0 mm / Raio de giro: 1265,0 mm</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1589,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1512,16 +1608,18 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="n">
-        <v>459017</v>
+        <v>449988</v>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>FARINHA DE MILHO</t>
+          <t>Lavadora Alta Pressão 1900 W</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>FARINHA DE MILHO, GRÃO: AMARELO, TIPO: FLOCADA, APRESENTAÇÃO: PRÉ- COZIDA, CARACTERÍSTICA ADICIONAL: TRANSGÊNICO, INGREDIENTE ADICIONAL: FORTIFICADA COM FERRO E ÁCIDO FÓLICO (Pacote de 500g)</t>
+          <t>Termômetro Laser Digital Infravermelho Tipo Pistola. Para Medição De Temperatura Da Superfície De Alimentos, Interior De Fornos, Geladeiras E Freezers. Material: Plástico e LCD
+Medição: Celsius e Fahrenheit / Temperatura: - 50 a 380ºC 
+Precisão: +1,5ºC a -1,5ºC / Alimentação: 2 pilhas AAA (inclusas)</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1631,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1552,16 +1650,19 @@
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="n">
-        <v>459670</v>
+        <v>483292</v>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>MASSA DE TOMATE</t>
+          <t>Liquidificador Industrial 8 L</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>MASSA DE TOMATE, TIPO: EXTRATO CONCENTRADO, COMPOSIÇÃO: TRADICIONAL, APRESENTAÇÃO: CREME (Embalagem de 340g)</t>
+          <t>Empilhadeira Elétrica Retrátil, tração manual e elevação por acionamento elétrico. Bateria inclusa.
+Dados Técnicos:
+Empilhadeira Elétrica Capacidade: 1.000 KG / Tipo Torre: Simples / Corrente Alimentação: Contínua / Tensão Alimentação: 12 V / Altura Elevação Garfo: 2.600 MM, 
+Largura Total: 790 MM/ Comprimento Total: 1.900 MM / Largura Externa Garfo: 560 MM / Altura Máxima Torre Abaixada: 1.850 MM / Peso: 456 Kg</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1674,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1592,16 +1693,24 @@
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="n">
-        <v>269172</v>
+        <v>451184</v>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>TEMPERO</t>
+          <t>Liquidificador Doméstico 2 L</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>TEMPERO, TIPO: ALHO E SAL, APRESENTAÇÃO: PASTA,  APLICAÇÃO: USO CULINÁRIO (Embalagem contendo o mínimo de 300g)</t>
+          <t>Bojos Em Aço Inoxidável 304 – Material Apropriado Para Contato Com Alimentos E Bebidas; Capacidade de Café: 2 reservatórios de 20 Litros
+Reservatórios: Aço inox 304 / Voltagem: 220V / Potência: 6500W / Potência: 6,5Kw/h / Garantia: 6 meses 
+Resistências Blindadas De Alta Performance
+Torneiras com identificação de "café" e "água"
+Termostato para controle de temperatura de 20ºc a 120ºc
+Visor de nível para o reservatório de água e os reservatórios de café
+Acompanha coador de pano
+Ideal para manter o café aquecido em banho maria pronto para servir
+Indicadas para refeitórios de indústrias ou locais com alto fluxo de pessoas / equipamento 220v monofásico.</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1722,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1632,16 +1741,20 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="n">
-        <v>446019</v>
+        <v>255706</v>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>LEITE EM PÓ</t>
+          <t>Máquina De Lavar Louça Industrial</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>LEITE EM PÓ, ORIGEM: DE VACA, TEOR GORDURA: INTEGRAL, SOLUBILIDADE: INSTANTÂNEO (Embalagem contendo o mínimo de 400g)</t>
+          <t>Carrinho caixa, todo telado, com meia porta, puxador e assoalho de chapa
+Cod.: GML 31 CHA A/D
+Carrinho caixa, todo telado, com meia porta, puxador tubular e assoalho de chapa. 
+Capacidade para 500 Kg. 
+Equipado com 4 rodízios de composto termoplástico com rolamento de esfera de 6”, sendo 2 fixos e 2 giratórios</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1766,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -1672,16 +1785,23 @@
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="n">
-        <v>463556</v>
+        <v>453490</v>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>ACHOCOLATADO</t>
+          <t>Ventilador De Parede</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>ACHOCOLATADO, APRESENTAÇÃO: PÓ, SABOR: TRADICIONAL, CARACTERÍSTICA ADICIONAL: ENRIQUECIDO   COM   VITAMINAS (Embalagem de 400g)</t>
+          <t>Carrinho Distribuição 
+Material Bandeja: Chapa Aço Inoxidável 
+Material Estrutura: Aço Inoxidável
+Tipo: Carro Cuba De 190 Litros
+Tipo Rodízio: Diâmetro De 5", 4 Sendo 2 C/ Trava P/ Estacionar
+Aplicação: transporte de carnes em açougues
+Comprimento: 904 MM, Largura: 650 MM, Altura: 800 MM
+Características adicionais: dreno com válvula de esfera para escoamento de líquidos</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1813,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -1712,536 +1832,21 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="n">
-        <v>235092</v>
+        <v>260540</v>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>BISCOITO SALGADO</t>
+          <t>Balcão Térmico Quente</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>BISCOITO, APRESENTAÇÃO: QUADRADO, CLASSIFICAÇÃO: SALGADO, TIPO: CREAM CRACKER (Peso mínimo 360g)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
-        <v>40</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="n">
-        <v>456469</v>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>BISCOITO MAISENA</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>BISCOITO, SABOR: MAIZENA, CARACTERÍSTICAS ADICIONAIS: SEM LACTOSE, TIPO: BOLACHA, INGREDIENTES: SEM GORDURA TRANS (Peso mínimo no pacote: 400g)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="n">
-        <v>41</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="n">
-        <v>462651</v>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>DOCE NÃO CONFEITADO</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>DOCE NÃO CONFEITADO, TIPO: MASSA, SABOR: GOIABA, FORMA APRESENTAÇÃO: TABLETE (Embalagem contendo o mínimo de 300g)</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="n">
-        <v>42</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="n">
-        <v>372527</v>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>CREME DENTAL</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>DENTIFRÍCIO COMPOSIÇÃO BÁSICA: CREME DENTAL COM FLUOR ATIVO DE (1100 Ppm) , Tipo: Adulto (Embalagem contendo o mínimo de 70g)</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="n">
-        <v>43</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="n">
-        <v>372079</v>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>SOLUÇÃO LIMPEZA MULTIUSO</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>SOLUÇÃO LIMPEZA MULTIUSO, COMPOSIÇÃO BÁSICA: AQUILBENZENO, SULFONATO DE SÓDIO, TENSOATIVO NÃO, ASPECTO FÍSICO: LÍQUIDO (Frasco de 500ml)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="n">
-        <v>44</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="n">
-        <v>449798</v>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>DETERGENTE</t>
-        </is>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>DETERGENTE COMPOSIÇÃO: DODECILBENZENO SULFONATO DE SÓDIO , APLICAÇÃO: LAVAGEM DE LOUÇAS , AROMA: INODORO, CARACTERÍSTICAS ADICIONAIS: PH 6,5 A  7,5  ,  ASPECTO  FÍSICO:  LÍQUIDO INCOLOR (Frasco de 500ml)</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="n">
-        <v>45</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="n">
-        <v>443004</v>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>PAPEL HIGIÊNICO</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>PAPEL HIGIÊNICO MATERIAL: CELULOSE VIRGEM , LARGURA: 10 CM, COR: BRANCA , CARACTERÍSTICAS ADICIONAIS: PICOTADO, FOLHA DUPLA (Pacote de 12UN)</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="n">
-        <v>46</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="n">
-        <v>301728</v>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>ABSORVENTE HIGIÊNICO</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>ABSORVENTE   HIGIÊNICO,   TIPO: NORMAL COM ABAS, CARACTERÍSTICAS ADICIONAIS: ADULTO, COM GEL, ALTA PROTEÇÃO (Embalagem de 32UN, Tamanho M, Comprimento: 28 cm)</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="n">
-        <v>47</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="n">
-        <v>299605</v>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>ÁGUA SANITÁRIA</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>ÁGUA SANITÁRIA, COMPOSIÇÃO QUÍMICA: HIPOCLORITO DE SÓDIO, HIDRÓXIDO DE SÓDIO, CLORETO, TEOR CLORO ATIVO: VARIA DE 2 A 2,50%, COR: INCOLOR, APLICAÇÃO: LAVAGEM E ALVEJANTE DE ROUPAS, BANHEIRAS, PIAS (Embalagem de 2L)</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="n">
-        <v>48</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="n">
-        <v>444433</v>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>SABONETE</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>SABONETE, ASPECTO FÍSICO: SÓLIDO, PESO: 90 G, AROMA: SUAVE, COR: BRANCA</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
-        <v>49</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="n">
-        <v>332971</v>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>SABÃO PÓ</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>SABÃO PÓ, ASPECTO FÍSICO: PÓ, COMPOSIÇÃO: CARBONATOS, SILICATOS, FOSFATOS, TENSOATIVOS NÃO IÔ-, CARACTERÍSTICAS ADICIONAIS: BIODEGRADÁVEL (Embalagem de 1kg)</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="n">
-        <v>50</v>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="n">
-        <v>603269</v>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>AÇÚCAR</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>AÇÚCAR,  TIPO:  CRISTAL,  Coloração: Branca (Embalagem de 2kg)</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="n">
-        <v>51</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="n">
-        <v>606522</v>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>CAFÉ</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>CAFÉ APRESENTAÇÃO: TORRADO MOÍDO, TIPO: ÚNICO, TORREFAÇÃO: PONTO DE TORRA ESCURA</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="n">
-        <v>52</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="n">
-        <v>373481</v>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>ESPONJA LIMPEZA</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>ESPONJA LIMPEZA MATERIAL: LÃ DE AÇO CARBONO , FORMATO: RETANGULAR , APLICAÇÃO: UTENSÍLIOS E LIMPEZA EM GERAL , CARACTERÍSTICAS ADICIONAIS: TEXTURA MACIA E ISENTA DE SINAIS DE OXIDAÇÃO , COMPRIMENTO MÍNIMO: 100 MM, LARGURA MÍNIMA: 50 M</t>
+          <t>Forno Turbo a Gás 5 Esteiras
+Consumo elétrico 127 V / 220 V / 1,02 kW/h / 1,10 kW/h 
+Consumo iluminação: 0,02 kW/h
+Potência elétrica 127V / 220V: 998W / 1078W / Disjuntor de proteção 127V / 220 V:10A bipolar curva B / 6A bipolar curva B
+Consumo de gás: 2,00 kg/h / Potência calorífica: 22.800 kcal/h / Pressão de gás: 2,8 kPa / Tensões: 127V ou 220V (não é bivolt) / Motor: 1/2 CV monofásico 127/220V 50/60 Hz / Peso: 150 kg 
+(Referência: FTDG5 ou de qualidade equivalente)</t>
         </is>
       </c>
     </row>
